--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62078B26-8800-0C4C-9463-99A6C2CCA2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFCCC3-EB91-5D45-BAF9-BB58FAB5A585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21020" yWindow="9280" windowWidth="20860" windowHeight="17440" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,16 +621,19 @@
       <c r="A13" s="1">
         <v>43934</v>
       </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43941</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFCCC3-EB91-5D45-BAF9-BB58FAB5A585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C39EE2-97AE-014F-B1F8-7ECB250E1469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Intro to the Course / Intro to R and Rstudio</t>
+  </si>
+  <si>
+    <t>ANCOVA</t>
+  </si>
+  <si>
+    <t>Multiple Regression (cont.)</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,6 +565,9 @@
       <c r="A6" s="1">
         <v>43885</v>
       </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -601,6 +610,9 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43920</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C39EE2-97AE-014F-B1F8-7ECB250E1469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE03B9-0A69-A040-AB48-AEA1F137E59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Due</t>
   </si>
   <si>
-    <t>Central Limit Theorem &lt;br/&gt; Null hypothesis testing (type I and II errors, power) &lt;br/&gt; Confidence Intervals</t>
-  </si>
-  <si>
     <t>Correlation&lt;br/&gt;Linear Regression</t>
   </si>
   <si>
@@ -122,6 +119,12 @@
   </si>
   <si>
     <t>Multiple Regression (cont.)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Central Limit Theorem &lt;br/&gt; Null hypothesis testing &lt;br/&gt; Confidence Intervals</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,21 +522,21 @@
         <v>43857</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43864</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,10 +544,10 @@
         <v>43871</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,13 +555,13 @@
         <v>43878</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,7 +569,7 @@
         <v>43885</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -574,18 +577,21 @@
         <v>43892</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43899</v>
       </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -601,10 +607,10 @@
         <v>43913</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,7 +618,7 @@
         <v>43920</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,13 +626,13 @@
         <v>43927</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,10 +640,10 @@
         <v>43934</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE03B9-0A69-A040-AB48-AEA1F137E59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90111A96-E4AB-5145-837D-3A34C7006FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="4840" yWindow="4540" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Diez, et al Chapter 9</t>
   </si>
   <si>
-    <t>Diez, et al Chapter 5</t>
-  </si>
-  <si>
     <t>Diez, et al Chapter 6.3</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>Central Limit Theorem &lt;br/&gt; Null hypothesis testing &lt;br/&gt; Confidence Intervals</t>
+  </si>
+  <si>
+    <t>[Intro Course Slides](/slides/01-Intro_to_Course.html), [Intro R Slides](/slides/02-IntroR.html)</t>
+  </si>
+  <si>
+    <t>Diez, et al Chapter 5&lt;br/&gt;[Survey Results](/slides/2020-02-03-Survey_Results.html), [Slides](/2020-02-03-Foundation_for_Inference.html)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +525,10 @@
         <v>43857</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -530,10 +536,10 @@
         <v>43864</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -569,7 +575,7 @@
         <v>43885</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -588,7 +594,7 @@
         <v>43899</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -610,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,7 +624,7 @@
         <v>43920</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90111A96-E4AB-5145-837D-3A34C7006FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD5B910-5D17-5543-BEDD-3AA1F532F770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="4540" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>[Intro Course Slides](/slides/01-Intro_to_Course.html), [Intro R Slides](/slides/02-IntroR.html)</t>
   </si>
   <si>
-    <t>Diez, et al Chapter 5&lt;br/&gt;[Survey Results](/slides/2020-02-03-Survey_Results.html), [Slides](/2020-02-03-Foundation_for_Inference.html)</t>
+    <t>Diez, et al Chapter 5&lt;br/&gt;[Survey Results](/slides/2020-02-03-Survey_Results.html), [Slides](/slides/2020-02-03-Foundation_for_Inference.html)</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD5B910-5D17-5543-BEDD-3AA1F532F770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB2699F-92EA-7448-B552-1C70ABDE35A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Diez, et al Chapter 5&lt;br/&gt;[Survey Results](/slides/2020-02-03-Survey_Results.html), [Slides](/slides/2020-02-03-Foundation_for_Inference.html)</t>
+  </si>
+  <si>
+    <t>HW: Linear Regression</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,9 +544,6 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -555,6 +555,9 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -567,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -576,6 +579,9 @@
       </c>
       <c r="B6" t="s">
         <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB2699F-92EA-7448-B552-1C70ABDE35A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED3E3D-0686-DF4C-A0D3-E5DB36B5DA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>ANCOVA</t>
   </si>
   <si>
-    <t>Multiple Regression (cont.)</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>HW: Linear Regression</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -539,10 +539,10 @@
         <v>43864</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,13 +564,10 @@
         <v>43878</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -578,7 +575,10 @@
         <v>43885</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -589,10 +589,7 @@
         <v>43892</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -600,7 +597,10 @@
         <v>43899</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED3E3D-0686-DF4C-A0D3-E5DB36B5DA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C557A9-AFEA-9C4A-9F3B-55DB046E5050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Due</t>
   </si>
   <si>
-    <t>Correlation&lt;br/&gt;Linear Regression</t>
-  </si>
-  <si>
     <t>Lab: Intro to R and Rstudio</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Central Limit Theorem &lt;br/&gt; Null hypothesis testing &lt;br/&gt; Confidence Intervals</t>
-  </si>
-  <si>
     <t>[Intro Course Slides](/slides/01-Intro_to_Course.html), [Intro R Slides](/slides/02-IntroR.html)</t>
   </si>
   <si>
@@ -131,6 +125,15 @@
   </si>
   <si>
     <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Central Limit Theorem</t>
+  </si>
+  <si>
+    <t>Null hypothesis testing &lt;br/&gt; Confidence Intervals</t>
+  </si>
+  <si>
+    <t>Diez, et al Chapter 7</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,21 +531,21 @@
         <v>43857</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43864</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -550,13 +553,13 @@
         <v>43871</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,10 +567,13 @@
         <v>43878</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -575,13 +581,13 @@
         <v>43885</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -589,7 +595,7 @@
         <v>43892</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,13 +603,13 @@
         <v>43899</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -619,10 +625,10 @@
         <v>43913</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -630,7 +636,7 @@
         <v>43920</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -638,13 +644,13 @@
         <v>43927</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,10 +658,10 @@
         <v>43934</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C557A9-AFEA-9C4A-9F3B-55DB046E5050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAEEB16-32AD-8341-9344-63CE98F27B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Navarro Chapter 17</t>
   </si>
   <si>
-    <t>Diez, et al Chapter 8</t>
-  </si>
-  <si>
     <t>Diez, et al Chapter 9</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>ANCOVA</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>[Intro Course Slides](/slides/01-Intro_to_Course.html), [Intro R Slides](/slides/02-IntroR.html)</t>
   </si>
   <si>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t>Diez, et al Chapter 7</t>
+  </si>
+  <si>
+    <t>Diez, et al Chapter 8&lt;br/&gt;[Slides](/slides/2020-02-17-Linear_Regression.html)</t>
   </si>
 </sst>
 </file>
@@ -501,7 +498,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,10 +528,10 @@
         <v>43857</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -542,10 +539,10 @@
         <v>43864</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,10 +550,10 @@
         <v>43871</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -567,13 +564,13 @@
         <v>43878</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -581,13 +578,7 @@
         <v>43885</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,7 +586,13 @@
         <v>43892</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -606,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -628,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -636,7 +633,7 @@
         <v>43920</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -647,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAEEB16-32AD-8341-9344-63CE98F27B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8BBFF-6B98-CD4F-B471-2FF89ACCB016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Diez, et al Chapter 8&lt;br/&gt;[Slides](/slides/2020-02-17-Linear_Regression.html)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/2020-02-24-Linear_Regression2.html), [R Script](https://github.com/jbryer/EPSY630Spring2020/blob/master/R/2020-02-24.R)</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,6 +582,9 @@
       </c>
       <c r="B6" t="s">
         <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8BBFF-6B98-CD4F-B471-2FF89ACCB016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865AF40-205B-C547-8D49-813E0BEDA60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>[Slides](/slides/2020-02-24-Linear_Regression2.html), [R Script](https://github.com/jbryer/EPSY630Spring2020/blob/master/R/2020-02-24.R)</t>
+  </si>
+  <si>
+    <t>Diez, et al Chapter 9, [Slides](/slides/2020-03-02-Multiple_Regression.html</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865AF40-205B-C547-8D49-813E0BEDA60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52356FB-320F-FC44-B7E1-1CC749E8B763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>[Slides](/slides/2020-02-24-Linear_Regression2.html), [R Script](https://github.com/jbryer/EPSY630Spring2020/blob/master/R/2020-02-24.R)</t>
   </si>
   <si>
-    <t>Diez, et al Chapter 9, [Slides](/slides/2020-03-02-Multiple_Regression.html</t>
+    <t>Diez, et al Chapter 9, [Slides](/slides/2020-03-02-Multiple_Regression.html)</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52356FB-320F-FC44-B7E1-1CC749E8B763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB68DF-3829-924E-AB06-C537D83B6594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -85,30 +85,18 @@
     <t>Lab: Multiple Regression</t>
   </si>
   <si>
-    <t>Chi-squared</t>
-  </si>
-  <si>
     <t>Bayesian Analysis</t>
   </si>
   <si>
     <t>Navarro Chapter 17</t>
   </si>
   <si>
-    <t>Diez, et al Chapter 9</t>
-  </si>
-  <si>
     <t>Diez, et al Chapter 6.3</t>
   </si>
   <si>
-    <t>Navarro Chapter 14&lt;br/&gt;Diez, et al Chapter 7.5</t>
-  </si>
-  <si>
     <t>Intro to the Course / Intro to R and Rstudio</t>
   </si>
   <si>
-    <t>ANCOVA</t>
-  </si>
-  <si>
     <t>[Intro Course Slides](/slides/01-Intro_to_Course.html), [Intro R Slides](/slides/02-IntroR.html)</t>
   </si>
   <si>
@@ -137,6 +125,18 @@
   </si>
   <si>
     <t>Diez, et al Chapter 9, [Slides](/slides/2020-03-02-Multiple_Regression.html)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>CLT - Chi Squared</t>
+  </si>
+  <si>
+    <t>Diez, et al Chapter 6 and 7, [Slides](/slides/2020-03-09-MandMs.html)</t>
+  </si>
+  <si>
+    <t>Navarro Chapter 14&lt;br/&gt;Diez, et al Chapter 7.5, [Slides](/slides/2020-03-23-ANOVA.html)</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,10 +534,10 @@
         <v>43857</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -545,10 +545,10 @@
         <v>43864</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -556,10 +556,10 @@
         <v>43871</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -570,13 +570,13 @@
         <v>43878</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -584,10 +584,10 @@
         <v>43885</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -609,10 +609,10 @@
         <v>43899</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>43920</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,10 +650,10 @@
         <v>43927</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -664,10 +664,10 @@
         <v>43934</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB68DF-3829-924E-AB06-C537D83B6594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2377BA-E73D-E74F-80E5-F38BF54AA4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5500" yWindow="6020" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>NO CLASS - Spring Break</t>
   </si>
   <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
     <t>Spring Recess</t>
   </si>
   <si>
@@ -73,15 +70,9 @@
     <t>Multiple Regression</t>
   </si>
   <si>
-    <t>Maximum Likelihood estimation&lt;br/&gt;Logistic Regression</t>
-  </si>
-  <si>
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Lab: ANOVA</t>
-  </si>
-  <si>
     <t>Lab: Multiple Regression</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>Diez, et al Chapter 9, [Slides](/slides/2020-03-02-Multiple_Regression.html)</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>CLT - Chi Squared</t>
   </si>
   <si>
@@ -137,6 +125,18 @@
   </si>
   <si>
     <t>Navarro Chapter 14&lt;br/&gt;Diez, et al Chapter 7.5, [Slides](/slides/2020-03-23-ANOVA.html)</t>
+  </si>
+  <si>
+    <t>Data Project Planning</t>
+  </si>
+  <si>
+    <t>Final Exam due May 8th</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Propensity Score Analysis</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -534,10 +534,10 @@
         <v>43857</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -545,10 +545,10 @@
         <v>43864</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -556,13 +556,13 @@
         <v>43871</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -570,13 +570,13 @@
         <v>43878</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -584,10 +584,10 @@
         <v>43885</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,13 +595,13 @@
         <v>43892</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,13 +609,13 @@
         <v>43899</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,10 +631,10 @@
         <v>43913</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,13 +650,10 @@
         <v>43927</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,10 +661,10 @@
         <v>43934</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -675,7 +672,7 @@
         <v>43941</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +680,7 @@
         <v>43948</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -691,7 +688,10 @@
         <v>43955</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -715,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>43910</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2377BA-E73D-E74F-80E5-F38BF54AA4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C539B9E-2521-8D41-8714-DCB870198D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="6020" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Propensity Score Analysis</t>
+  </si>
+  <si>
+    <t>[Stats Decision Tree](https://www.peggykern.org/uploads/5/6/6/7/56678211/edu90790_decision_chart.pdf), Example Presentation [Slides](/slides/Predicting_Retention.html) [Rmd Source](https://github.com/jbryer/EPSY630Spring2020/blob/master/Slides/Predicting_Retention.Rmd)</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,6 +646,9 @@
       </c>
       <c r="B11" t="s">
         <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/EPSY630 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C539B9E-2521-8D41-8714-DCB870198D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC879F-A7CC-C840-ADB3-8B7AF9AD5514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="6020" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,10 +667,7 @@
         <v>43934</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -678,7 +675,10 @@
         <v>43941</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
